--- a/data/trans_bre/Hacinamiento_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.379098545154918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8377554659063924</v>
+        <v>0.8377554659063903</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1924651849828791</v>
@@ -649,7 +649,7 @@
         <v>-0.1795291929091921</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1615384889072269</v>
+        <v>0.1615384889072265</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.017223778828753</v>
+        <v>-1.580783652995963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3669683917665973</v>
+        <v>-0.2972131534182172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.670098642975351</v>
+        <v>-3.561467657523624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.145667901133107</v>
+        <v>-2.270907965682251</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2221781492490327</v>
+        <v>-0.2000247668035277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05022672574959756</v>
+        <v>-0.03828093875226572</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.396875024603624</v>
+        <v>-0.4069269547033968</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3167509796924354</v>
+        <v>-0.3469616505571279</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.183832750570897</v>
+        <v>4.203351369256021</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.647560545058989</v>
+        <v>5.064181659179178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7461480287116645</v>
+        <v>0.7834079477572664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.928353093602555</v>
+        <v>3.664490582654888</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7472218418460603</v>
+        <v>0.7705152811589568</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6710929676394147</v>
+        <v>0.6998644313469357</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.123544032052573</v>
+        <v>0.1271344297753311</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.135599694887861</v>
+        <v>1.02362170653788</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.024933615905929</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.510458567500362</v>
+        <v>1.510458567500361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2312817427443889</v>
@@ -749,7 +749,7 @@
         <v>0.3813284837414533</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.581345789154901</v>
+        <v>0.5813457891549008</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.013936509519822</v>
+        <v>-0.8170573052402982</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2558766543193494</v>
+        <v>-0.443075335604892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5446546278190577</v>
+        <v>-0.6174843011025992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4665599198981313</v>
+        <v>-0.244638354732906</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1732398346056012</v>
+        <v>-0.142428889525568</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08467792025211034</v>
+        <v>-0.1038632788730945</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1791668739675015</v>
+        <v>-0.2095116830729462</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.150795439682676</v>
+        <v>-0.1050142021528518</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.27245861728563</v>
+        <v>3.377475543463228</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.326869124226977</v>
+        <v>3.293592240232937</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.684905142691667</v>
+        <v>2.515216948399742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.133592471011588</v>
+        <v>3.262436184232326</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.792953284284819</v>
+        <v>0.8408994142598522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.157451790588095</v>
+        <v>1.177574177940064</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.469849778320265</v>
+        <v>1.357037612768791</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.736040233260521</v>
+        <v>1.965733351935441</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.974031871862599</v>
+        <v>-2.250791811656381</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.887443386611884</v>
+        <v>-2.05599872618963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3328960408536431</v>
+        <v>-0.4501809880298703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.107519212144889</v>
+        <v>-1.06076351050998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3897360386230574</v>
+        <v>-0.4411630191766855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4468729922676561</v>
+        <v>-0.4951577332580163</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1336770170903261</v>
+        <v>-0.1628865019521847</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4952740331148011</v>
+        <v>-0.4756562085544693</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.561369465705464</v>
+        <v>1.365007234017316</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.5828587785197</v>
+        <v>1.58563986960813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.160921194774199</v>
+        <v>2.905522058199423</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.252394834636197</v>
+        <v>1.251339185969047</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4989145752068729</v>
+        <v>0.4148920181610313</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6553759156557127</v>
+        <v>0.6436749111045151</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.148521955630315</v>
+        <v>2.138486228884822</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.391883061197684</v>
+        <v>1.317177464555501</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5073034075438708</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.5382745556901603</v>
+        <v>-0.5382745556901596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9256310389383473</v>
@@ -949,7 +949,7 @@
         <v>0.1887225239027158</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1971002019296815</v>
+        <v>-0.1971002019296813</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4868655510932947</v>
+        <v>-0.6261786289239364</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.424824529251746</v>
+        <v>0.03805425306572852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.746451897822696</v>
+        <v>-1.81421360263526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.037849144872377</v>
+        <v>-2.118860262087512</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.290215282095311</v>
+        <v>-0.2822710859840531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06065818041004577</v>
+        <v>-0.03602407262133289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4791465262181981</v>
+        <v>-0.4791691148666595</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5593649975830227</v>
+        <v>-0.5571903827140933</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.736675544692965</v>
+        <v>4.629668219152413</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.839621003357418</v>
+        <v>4.421366195781594</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.772501443960177</v>
+        <v>2.779687633995657</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7736389377284912</v>
+        <v>0.7846389125884649</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.787149012934711</v>
+        <v>3.794200860715643</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.963855518643782</v>
+        <v>4.182897913320899</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.730137889546362</v>
+        <v>1.699170560079058</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4377425738498114</v>
+        <v>0.4219196559509675</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.2546961605212242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.590924044297332</v>
+        <v>0.5909240442973328</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2650148461887085</v>
@@ -1049,7 +1049,7 @@
         <v>0.05972699118289202</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2187680272664889</v>
+        <v>0.2187680272664893</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1916978910755961</v>
+        <v>0.1388998161603851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2942635337800745</v>
+        <v>0.3277969624447093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8346544317161056</v>
+        <v>-0.7495722013000728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3489801619241163</v>
+        <v>-0.3398534825805347</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03784917900214474</v>
+        <v>0.02238647722070789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04877483835558796</v>
+        <v>0.06004047891181245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.175795644364711</v>
+        <v>-0.1568687862385098</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.109525692883445</v>
+        <v>-0.1062635530880088</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.407762287439713</v>
+        <v>2.437642607959618</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.44533676068778</v>
+        <v>2.55672020043514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.27690107745423</v>
+        <v>1.273245551384818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.351723339531808</v>
+        <v>1.482957143713299</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5804290593112278</v>
+        <v>0.5784221878985077</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5595037792680629</v>
+        <v>0.6031619922906138</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3377244790158849</v>
+        <v>0.3381592090985688</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6092470548600291</v>
+        <v>0.6750925018738482</v>
       </c>
     </row>
     <row r="19">
